--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1934.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1934.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.122678512601215</v>
+        <v>0.3577081263065338</v>
       </c>
       <c r="B1">
-        <v>2.616305050650075</v>
+        <v>0.2669700682163239</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.097843289375305</v>
       </c>
       <c r="D1">
-        <v>1.781210609144525</v>
+        <v>3.678993225097656</v>
       </c>
       <c r="E1">
-        <v>1.227380581697562</v>
+        <v>1.944491386413574</v>
       </c>
     </row>
   </sheetData>
